--- a/arduino/Sensors/IR/New/ir11.xlsx
+++ b/arduino/Sensors/IR/New/ir11.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="ir11" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -742,11 +742,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="397359432"/>
-        <c:axId val="397357472"/>
+        <c:axId val="249320728"/>
+        <c:axId val="249325432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="397359432"/>
+        <c:axId val="249320728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -803,12 +803,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397357472"/>
+        <c:crossAx val="249325432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="397357472"/>
+        <c:axId val="249325432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -865,7 +865,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397359432"/>
+        <c:crossAx val="249320728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1074,11 +1074,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="319677376"/>
-        <c:axId val="319676984"/>
+        <c:axId val="249325824"/>
+        <c:axId val="249319552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="319677376"/>
+        <c:axId val="249325824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,12 +1135,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319676984"/>
+        <c:crossAx val="249319552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="319676984"/>
+        <c:axId val="249319552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1197,7 +1197,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319677376"/>
+        <c:crossAx val="249325824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2689,7 +2689,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2744,14 +2744,14 @@
         <v>30</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F10" si="0">1/(E2+$E$12)</f>
+        <f t="shared" ref="F2:F6" si="0">1/(E2+$E$12)</f>
         <v>3.3003300330033E-2</v>
       </c>
       <c r="G2">
         <v>3.6305960999999998E-2</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H10" si="1">1/G2-$E$12</f>
+        <f t="shared" ref="H2:H6" si="1">1/G2-$E$12</f>
         <v>27.243686283362671</v>
       </c>
       <c r="I2">
